--- a/Project Allocation.xlsx
+++ b/Project Allocation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Project Name</t>
   </si>
@@ -46,15 +46,9 @@
     <t>Register page front + back</t>
   </si>
   <si>
-    <t>Dashboard user front + back</t>
-  </si>
-  <si>
     <t>Login page frontend, navbar</t>
   </si>
   <si>
-    <t>Dashboard administrator front + back, login backend</t>
-  </si>
-  <si>
     <t>7 zile</t>
   </si>
   <si>
@@ -80,13 +74,28 @@
   </si>
   <si>
     <t>Polls admin</t>
+  </si>
+  <si>
+    <t>Invoices user front + back</t>
+  </si>
+  <si>
+    <t>Week1</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Login front + back, routing and login protection</t>
+  </si>
+  <si>
+    <t>Dashboard administrator front + back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -106,6 +115,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,10 +372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -361,7 +385,7 @@
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -369,7 +393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -380,91 +404,124 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="A9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Allocation.xlsx
+++ b/Project Allocation.xlsx
@@ -85,10 +85,10 @@
     <t>Week2</t>
   </si>
   <si>
-    <t>Login front + back, routing and login protection</t>
-  </si>
-  <si>
     <t>Dashboard administrator front + back</t>
+  </si>
+  <si>
+    <t>Login front + back, routing, logout + login protection</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -465,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>

--- a/Project Allocation.xlsx
+++ b/Project Allocation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielT\Desktop\Spahiu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF33DA-175F-47FC-BAE9-54098ED4AECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Project Name</t>
   </si>
@@ -89,12 +95,15 @@
   </si>
   <si>
     <t>Login front + back, routing, logout + login protection</t>
+  </si>
+  <si>
+    <t>Navbar+Polls user+Polls admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -167,6 +176,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -368,14 +380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -472,7 +484,15 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>

--- a/Project Allocation.xlsx
+++ b/Project Allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielT\Desktop\Spahiu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF33DA-175F-47FC-BAE9-54098ED4AECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72FD5DB-FC61-4B1C-9A37-DAC4DDF0F98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Project Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Your account administrator</t>
   </si>
   <si>
-    <t>Invoices user</t>
-  </si>
-  <si>
     <t>Invoices admin</t>
   </si>
   <si>
@@ -76,12 +73,6 @@
     <t>Services admin</t>
   </si>
   <si>
-    <t>Polls user</t>
-  </si>
-  <si>
-    <t>Polls admin</t>
-  </si>
-  <si>
     <t>Invoices user front + back</t>
   </si>
   <si>
@@ -97,7 +88,7 @@
     <t>Login front + back, routing, logout + login protection</t>
   </si>
   <si>
-    <t>Navbar+Polls user+Polls admin</t>
+    <t>Navbar+Polls user+Polls admin+Dashboard User</t>
   </si>
 </sst>
 </file>
@@ -384,10 +375,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -418,7 +409,7 @@
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -428,7 +419,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -450,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -469,7 +460,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -477,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -488,7 +479,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>11</v>
@@ -510,34 +501,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
